--- a/CIS eFAS Industry DB Scraping/IT_EFAS_INDU_SPECIAL_DB/SPECIAL_DB/IT_EFAS_INDU_SPECIAL_DB.xlsx
+++ b/CIS eFAS Industry DB Scraping/IT_EFAS_INDU_SPECIAL_DB/SPECIAL_DB/IT_EFAS_INDU_SPECIAL_DB.xlsx
@@ -17294,7 +17294,7 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
-        <v>5435</v>
+        <v>5644</v>
       </c>
       <c r="O158" t="n">
         <v>122.431818181818</v>
@@ -17390,7 +17390,9 @@
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>5205</v>
+      </c>
       <c r="O159" t="n">
         <v>127.075</v>
       </c>
@@ -17441,8 +17443,12 @@
           <t>7993</t>
         </is>
       </c>
-      <c r="AI159" t="inlineStr"/>
-      <c r="AJ159" t="inlineStr"/>
+      <c r="AI159" t="n">
+        <v>9387</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>66051</v>
+      </c>
       <c r="AK159" t="n">
         <v>97.10790976</v>
       </c>
@@ -17551,7 +17557,7 @@
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="n">
-        <v>3125.52998046875</v>
+        <v>3108.066223144531</v>
       </c>
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
